--- a/2-figures/ectopic-folding/source.xlsx
+++ b/2-figures/ectopic-folding/source.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig1d+e, Time+GB, Original" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Fig1d+e, Time+GB (Raw)" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Fig1d, Time" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Fig1e, Germ Band" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Fig1h, Area (individual folds)" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Fig1h, Area (Raw)" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="Fig1h, Area (total per embryo)" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
